--- a/biology/Zoologie/Conus_purpurascens/Conus_purpurascens.xlsx
+++ b/biology/Zoologie/Conus_purpurascens/Conus_purpurascens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Conus purpurascens est un mollusque appartenant à la famille des Conidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">côtes ouest des Amériques.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Longueur : 6 cm.</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dans le film Le Monde perdu : Jurassic Park (1997), Eddie Carr (Richard Schiff) mentionne le venin du Conus purpurascens lorsqu'il monte son "fusil à air comprimé Lindstradt" avant l'arrivée sur Isla Sorna[réf. souhaitée]. Dans le roman éponyme, c'est Thorne qui le mentionne à Malcolm.</t>
         </is>
@@ -602,7 +620,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Référence UICN : espèce Conus purpurascens Sowerby I, 1833 (consulté le 18 mai 2015)
 Arianna Fulvo et Roberto Nistri (2005) 350 coquillages du monde entier. Delachaux et Niestlé, Paris, 256 p.  (ISBN 2-603-01374-2)
